--- a/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,69; 0,72</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 1,31</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 4,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 5,24</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 1,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 2,55</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-54,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-27,96%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 117,62</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-83,61; 150,01</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-45,9; 88,26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-32,24; 112,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,86; 61,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,63; 76,09</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 0,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 4,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 0,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 0,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 2,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 0,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 0,15</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,39%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,57; 268,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,23; 134,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,43; 158,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 138,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,88; 9,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,44; 14,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,71; 116,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,5; 1,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,99; 9,72</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 3,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 1,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 5,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 2,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 0,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 5,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>259,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,13%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 684,03</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 1373,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,67; 102,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,16; 60,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,62; 144,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,71; 89,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,8; 19,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,72; 204,41</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 0,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 0,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 3,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 4,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; -1,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 1,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 1,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; -1,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,57%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,87; 30,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,88; 26,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,09; 63,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,33; 78,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,33; 90,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,04; -29,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,15; 39,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,47; 44,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,76; -28,28</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 0,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 5,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 9,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 1,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 7,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 5,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 0,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 5,57</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>345,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>606,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,15%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,4%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,24%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,18%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,54; 298,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,65; 85,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,81; 264,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 313,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,88; 57,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,38; 332,13</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 0,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 1,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,62; 2,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; 0,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 3,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 0,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 0,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 2,97</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,55%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,79%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,41%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,31%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-100,0; inf</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,27; 427,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,43; 60,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,36; 19,58</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,33; 83,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,98; 32,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,66; 13,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,22; 97,83</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 0,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 1,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 3,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 2,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; -0,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 4,74</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; -0,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 3,46</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,01%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,33%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,68%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,48; 11,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,68; 73,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; 190,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,44; 48,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,54; -7,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,13; 93,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,21; 18,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,61; -0,55</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,79; 84,08</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; -0,56</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; -0,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; -1,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 2,89</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,87</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; -0,14</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 0,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,47</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; -0,95</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,41%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,75%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,4%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,64%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,31%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,55%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,16; -22,07</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,34; -3,19</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -52,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,23; 108,32</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,78; 73,66</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,02; -3,81</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,63; 33,34</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 20,69</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,9; -41,86</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; -0,23</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; -0,29</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,49</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,79</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; -0,18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 0,84</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 0,57</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; -0,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,5</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,44%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,8%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,02; -10,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,34; -16,04</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,74; 27,58</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 37,27</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,43; -2,8</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,09; 18,03</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,28; 16,09</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,26; -13,36</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,86; 14,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 2,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,31</t>
+          <t>-3,29; 1,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 3,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,24</t>
+          <t>-3,12; 5,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 2,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,55</t>
+          <t>-2,57; 2,19</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-27,96%</t>
+          <t>-34,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,47; 281,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,61; 150,01</t>
+          <t>-85,36; 126,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,56; 98,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 112,22</t>
+          <t>-34,01; 111,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,78; 71,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 76,09</t>
+          <t>-41,33; 65,6</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,29</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,78</t>
+          <t>-2,72; 0,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,35</t>
+          <t>-4,08; 0,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,15</t>
+          <t>-2,84; 0,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-40,49%</t>
+          <t>-42,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,68%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-39,39%</t>
+          <t>-41,87%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,43; 158,06</t>
+          <t>-89,68; 148,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,44; 14,91</t>
+          <t>-70,79; 11,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,99; 9,72</t>
+          <t>-68,11; 4,88</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,68</t>
+          <t>0,64; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,44</t>
+          <t>-1,15; 5,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,04</t>
+          <t>0,61; 4,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>259,07%</t>
+          <t>254,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>83,96%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1373,3</t>
+          <t>-0,79; 1361,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 144,51</t>
+          <t>-17,57; 142,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 204,41</t>
+          <t>11,39; 201,27</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,45</t>
+          <t>-3,87; 0,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,31</t>
+          <t>-3,95; 0,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,79</t>
+          <t>-2,16; 5,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -1,85</t>
+          <t>-7,77; -2,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,55</t>
+          <t>-2,25; 2,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; -1,31</t>
+          <t>-5,22; -1,47</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-55,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-62,08%</t>
+          <t>-61,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-63,61%</t>
+          <t>-69,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-61,57%</t>
+          <t>-65,46%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 30,55</t>
+          <t>-85,38; 38,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,09; 63,31</t>
+          <t>-91,29; 71,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 78,03</t>
+          <t>-28,59; 112,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,04; -29,04</t>
+          <t>-86,62; -40,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 39,85</t>
+          <t>-36,8; 54,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,76; -28,28</t>
+          <t>-81,91; -36,21</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,36</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,25</t>
+          <t>0,8; 5,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,28</t>
+          <t>-1,48; 7,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,57</t>
+          <t>0,83; 5,62</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>606,89%</t>
+          <t>606,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>67,14%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>115,18%</t>
+          <t>117,08%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 264,53</t>
+          <t>-19,52; 269,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,38; 332,13</t>
+          <t>12,35; 336,47</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,19</t>
+          <t>-1,29; 3,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,81</t>
+          <t>-3,54; 3,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,97</t>
+          <t>-1,55; 2,86</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>59,94%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 427,65</t>
+          <t>-46,33; 415,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 83,06</t>
+          <t>-40,79; 80,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 97,83</t>
+          <t>-28,4; 94,53</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,71</t>
+          <t>-0,85; 3,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,74</t>
+          <t>-4,08; 3,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,46</t>
+          <t>-1,63; 2,81</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>19,75%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 190,34</t>
+          <t>-23,25; 180,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 93,16</t>
+          <t>-50,96; 73,12</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 84,08</t>
+          <t>-28,77; 68,82</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,99</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -1,16</t>
+          <t>-3,66; -1,21</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,14</t>
+          <t>-3,15; -0,11</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,95</t>
+          <t>-3,08; -1,04</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-90,4%</t>
+          <t>-92,37%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-43,64%</t>
+          <t>-42,99%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-63,55%</t>
+          <t>-67,93%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -52,3</t>
+          <t>-100,0; -64,43</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-69,02; -3,81</t>
+          <t>-68,64; -2,92</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-78,9; -41,86</t>
+          <t>-84,37; -46,78</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,49</t>
+          <t>-1,02; 0,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,84</t>
+          <t>-1,54; 0,62</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,5</t>
+          <t>-1,04; 0,31</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-7,56%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 27,58</t>
+          <t>-40,11; 23,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 18,03</t>
+          <t>-26,28; 13,01</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 14,14</t>
+          <t>-25,23; 8,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,5</t>
+          <t>-3,01; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 0,72</t>
+          <t>-4,0; 0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,08</t>
+          <t>-3,37; 1,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,99</t>
+          <t>-5,38; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,33</t>
+          <t>-4,76; 4,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,19</t>
+          <t>-3,32; 4,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,17</t>
+          <t>-3,26; 2,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,98</t>
+          <t>-2,89; 2,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,19</t>
+          <t>-2,36; 2,17</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,47; 281,78</t>
+          <t>-83,48; 233,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 117,62</t>
+          <t>-100,0; 150,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 126,77</t>
+          <t>-80,62; 180,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,56; 98,98</t>
+          <t>-58,47; 83,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 88,26</t>
+          <t>-50,85; 96,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 111,26</t>
+          <t>-34,35; 98,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 71,28</t>
+          <t>-54,68; 61,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,86; 61,77</t>
+          <t>-49,97; 71,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 65,6</t>
+          <t>-37,77; 67,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,1</t>
+          <t>-2,17; 2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,84</t>
+          <t>-2,53; 0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 0,72</t>
+          <t>-2,8; 0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,13</t>
+          <t>-1,05; 4,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,23</t>
+          <t>-4,43; 0,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,3</t>
+          <t>-4,18; 0,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,7</t>
+          <t>-1,13; 2,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,05</t>
+          <t>-2,85; 0,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,05</t>
+          <t>-2,89; 0,12</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,57; 268,5</t>
+          <t>-82,04; 299,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,23; 134,59</t>
+          <t>-83,67; 124,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,68; 148,43</t>
+          <t>-88,15; 134,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 138,06</t>
+          <t>-20,95; 139,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 9,94</t>
+          <t>-76,83; 7,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 11,9</t>
+          <t>-69,49; 10,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 116,88</t>
+          <t>-31,15; 91,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,5; 1,02</t>
+          <t>-70,36; 2,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,11; 4,88</t>
+          <t>-70,09; 5,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,07</t>
+          <t>-1,85; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,5</t>
+          <t>-3,13; 0,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,62</t>
+          <t>0,69; 5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,59</t>
+          <t>-3,09; 4,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,72</t>
+          <t>-4,94; 1,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,36</t>
+          <t>-0,97; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,24</t>
+          <t>-1,79; 2,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,39</t>
+          <t>-3,39; 0,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,91</t>
+          <t>0,81; 4,77</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 684,03</t>
+          <t>-100,0; 622,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1361,5</t>
+          <t>-5,5; 1362,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 102,27</t>
+          <t>-45,19; 116,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 60,47</t>
+          <t>-69,47; 42,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 142,36</t>
+          <t>-14,55; 150,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 89,61</t>
+          <t>-42,37; 96,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,8; 19,28</t>
+          <t>-72,33; 23,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,39; 201,27</t>
+          <t>11,34; 201,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,4</t>
+          <t>-4,01; 0,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,33</t>
+          <t>-3,83; 0,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 0,42</t>
+          <t>-4,3; 0,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 5,45</t>
+          <t>-2,09; 5,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,63</t>
+          <t>-2,87; 4,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -2,23</t>
+          <t>-7,58; -2,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,19</t>
+          <t>-2,39; 2,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,83</t>
+          <t>-2,62; 1,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -1,47</t>
+          <t>-5,19; -1,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,38; 38,52</t>
+          <t>-88,87; 29,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-84,88; 26,19</t>
+          <t>-84,88; 33,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,29; 71,35</t>
+          <t>-91,68; 43,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 112,78</t>
+          <t>-26,21; 124,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 90,52</t>
+          <t>-33,12; 84,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,62; -40,44</t>
+          <t>-85,2; -37,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 54,71</t>
+          <t>-39,44; 54,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 44,2</t>
+          <t>-42,55; 46,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,91; -36,21</t>
+          <t>-81,21; -35,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,45</t>
+          <t>0,02; 4,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,85</t>
+          <t>-1,34; 0,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,22</t>
+          <t>0,65; 4,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,74</t>
+          <t>-0,72; 9,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,83</t>
+          <t>-6,55; 1,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,45</t>
+          <t>-1,06; 7,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,71</t>
+          <t>-0,01; 5,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,93</t>
+          <t>-3,08; 1,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,62</t>
+          <t>1,05; 5,77</t>
         </is>
       </c>
     </row>
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 298,65</t>
+          <t>-16,32; 332,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-80,65; 85,1</t>
+          <t>-80,66; 75,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 269,95</t>
+          <t>-16,78; 274,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 313,66</t>
+          <t>-3,55; 322,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-79,88; 57,66</t>
+          <t>-77,6; 67,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,35; 336,47</t>
+          <t>16,45; 346,01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,75</t>
+          <t>-3,11; 0,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,2</t>
+          <t>-2,76; 1,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,11</t>
+          <t>-1,29; 3,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,44</t>
+          <t>-5,09; 2,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 0,8</t>
+          <t>-6,43; 0,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,78</t>
+          <t>-3,1; 4,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,97</t>
+          <t>-3,52; 0,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,2</t>
+          <t>-3,69; 0,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,86</t>
+          <t>-1,46; 2,74</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>-100,0; 226,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 184,1</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 415,03</t>
+          <t>-52,97; 405,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 60,48</t>
+          <t>-60,67; 52,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 19,58</t>
+          <t>-76,42; 18,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 80,98</t>
+          <t>-36,06; 96,32</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-63,98; 32,01</t>
+          <t>-63,52; 31,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-72,66; 13,15</t>
+          <t>-69,97; 18,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 94,53</t>
+          <t>-27,99; 94,74</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,08</t>
+          <t>-3,53; -0,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,45</t>
+          <t>-2,43; 1,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,53</t>
+          <t>-1,04; 3,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,52</t>
+          <t>-2,92; 2,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -0,38</t>
+          <t>-5,24; -0,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,87</t>
+          <t>-4,07; 3,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,68</t>
+          <t>-2,55; 0,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; -0,06</t>
+          <t>-3,36; -0,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,81</t>
+          <t>-1,74; 2,86</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-84,48; 11,24</t>
+          <t>-85,65; -0,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-59,68; 73,85</t>
+          <t>-61,11; 58,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 180,02</t>
+          <t>-31,12; 159,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 48,04</t>
+          <t>-37,67; 50,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-66,54; -7,98</t>
+          <t>-64,98; -5,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 73,12</t>
+          <t>-50,3; 58,37</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 18,63</t>
+          <t>-45,16; 18,15</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-57,61; -0,55</t>
+          <t>-57,23; -3,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 68,82</t>
+          <t>-29,61; 70,8</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,21; -0,56</t>
+          <t>-3,12; -0,49</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,03; -0,37</t>
+          <t>-3,08; -0,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -1,21</t>
+          <t>-3,61; -1,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,89</t>
+          <t>-0,98; 2,88</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,87</t>
+          <t>-1,62; 2,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -0,11</t>
+          <t>-3,09; -0,16</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,79</t>
+          <t>-1,68; 0,81</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,47</t>
+          <t>-1,72; 0,45</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,08; -1,04</t>
+          <t>-2,94; -1,03</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-91,16; -22,07</t>
+          <t>-91,05; -20,12</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-85,34; -3,19</t>
+          <t>-88,61; -6,51</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -64,43</t>
+          <t>-100,0; -66,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 108,32</t>
+          <t>-23,89; 121,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 73,66</t>
+          <t>-37,3; 92,01</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-68,64; -2,92</t>
+          <t>-68,62; -1,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 33,34</t>
+          <t>-45,46; 35,71</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 20,69</t>
+          <t>-50,92; 20,39</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-84,37; -46,78</t>
+          <t>-82,96; -45,39</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,58; -0,23</t>
+          <t>-1,57; -0,23</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,29</t>
+          <t>-1,64; -0,32</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,46</t>
+          <t>-0,93; 0,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,79</t>
+          <t>-0,43; 1,81</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,24; -0,18</t>
+          <t>-2,23; -0,04</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,62</t>
+          <t>-1,62; 0,65</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,57</t>
+          <t>-0,73; 0,58</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,66; -0,45</t>
+          <t>-1,65; -0,46</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,31</t>
+          <t>-0,99; 0,37</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-61,02; -10,44</t>
+          <t>-59,11; -11,67</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -16,04</t>
+          <t>-61,24; -16,92</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 23,16</t>
+          <t>-36,26; 27,09</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 37,27</t>
+          <t>-7,92; 37,79</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -2,8</t>
+          <t>-37,67; 0,45</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 13,01</t>
+          <t>-27,36; 13,09</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 16,09</t>
+          <t>-17,87; 17,27</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-39,26; -13,36</t>
+          <t>-40,7; -12,68</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 8,76</t>
+          <t>-24,21; 10,85</t>
         </is>
       </c>
     </row>
